--- a/exports/attendance-2025-11-25.xlsx
+++ b/exports/attendance-2025-11-25.xlsx
@@ -8277,7 +8277,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -8296,7 +8300,11 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -8315,7 +8323,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -8334,7 +8346,11 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -8353,7 +8369,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -8372,7 +8392,11 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -8391,7 +8415,11 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -8410,7 +8438,11 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -8429,7 +8461,11 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -8448,7 +8484,11 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -8467,7 +8507,11 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -8486,7 +8530,11 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -8505,7 +8553,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -8524,7 +8576,11 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -8543,7 +8599,11 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -8562,7 +8622,11 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -8581,7 +8645,11 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -8600,7 +8668,11 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -8619,7 +8691,11 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -8638,7 +8714,11 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -8657,7 +8737,11 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -8676,7 +8760,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -8695,7 +8783,11 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -8714,7 +8806,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -8733,7 +8829,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -8752,7 +8852,11 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -8771,7 +8875,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -8790,7 +8898,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -8809,7 +8921,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -8828,7 +8944,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -8847,7 +8967,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -8866,7 +8990,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -8899,7 +9027,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>P:0 A:0</t>
+          <t>P:29 A:3</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
